--- a/src/main/resources/templet/download/whouse/outhouse.xlsx
+++ b/src/main/resources/templet/download/whouse/outhouse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>类别</t>
   </si>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>是否成品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -50,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -165,10 +169,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,6 +522,9 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="6"/>
     </row>
